--- a/xlsx/南卡罗来纳州_intext.xlsx
+++ b/xlsx/南卡罗来纳州_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_南卡罗来纳州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_南卡罗来纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E%E5%B7%9E%E6%97%97</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E9%BA%A5%E5%85%8B%E9%A6%AC%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>亨利·麥克馬斯特</t>
+    <t>亨利·麦克马斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_South_Carolina</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%B3%BD%C2%B7%E6%A0%BC%E9%9B%B7%E5%A7%86</t>
   </si>
   <si>
-    <t>林賽·格雷姆</t>
+    <t>林赛·格雷姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E5%A7%86%C2%B7%E6%96%AF%E7%A7%91%E7%89%B9</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E4%B8%80%E4%B8%96</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國海軍</t>
+    <t>美国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E7%8E%8B</t>
   </si>
   <si>
-    <t>英國國王</t>
+    <t>英国国王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
@@ -233,25 +233,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
+    <t>非裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E7%A4%BC%E4%BC%9A</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83%E6%B4%BE</t>
   </si>
   <si>
-    <t>衛理公會派</t>
+    <t>卫理公会派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%80%81%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>長老教會</t>
+    <t>长老教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%E9%A1%BF_(%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南卡羅萊納大學</t>
+    <t>南卡罗莱纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南卡羅來納大學</t>
+    <t>南卡罗来纳大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/University_of_South_Carolina_Spartanburg</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%E9%A0%93%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>查爾斯頓學院</t>
+    <t>查尔斯顿学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Medical_University_of_South_Carolina</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哥倫比亞學院</t>
+    <t>哥伦比亚学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Columbia_College_(Columbia,_South_Carolina)</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%85%E7%88%BE%E6%9B%BC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>傅爾曼大學</t>
+    <t>傅尔曼大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Newberry_College</t>
@@ -491,31 +491,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%B4%85%E8%A5%AA</t>
   </si>
   <si>
-    <t>波士頓紅襪</t>
+    <t>波士顿红袜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%B4%8B%E5%9F%BA</t>
   </si>
   <si>
-    <t>紐約洋基</t>
+    <t>纽约洋基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7%E5%8B%87%E5%A3%AB</t>
   </si>
   <si>
-    <t>亞特蘭大勇士</t>
+    <t>亚特兰大勇士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/20%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>20號州際公路</t>
+    <t>20号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/26%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -533,13 +533,13 @@
     <t>https://zh.wikipedia.org/wiki/85%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>85號州際公路</t>
+    <t>85号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/95%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>95號州際公路</t>
+    <t>95号州际公路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bernard_Baruch</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -737,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -827,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
@@ -893,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -911,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -923,19 +923,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -953,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -965,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -977,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -989,25 +989,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1037,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1055,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1073,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
